--- a/FASE 2/AVANCE+/Pendientes 13.08.12.xlsx
+++ b/FASE 2/AVANCE+/Pendientes 13.08.12.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="135">
   <si>
     <t>Usuario lider</t>
   </si>
@@ -526,6 +526,15 @@
   </si>
   <si>
     <t>23/7/2012</t>
+  </si>
+  <si>
+    <t>Responder a consultas de observaciones de Fernando Gastañaudi</t>
+  </si>
+  <si>
+    <t>Responder a consultas relacionadas a las observaciones de Administrar Lotes, ID y Ensayos y Reporte Consolidad en Archivo</t>
+  </si>
+  <si>
+    <t>8/10/2012 (mes/dia/año)</t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -618,11 +627,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,6 +754,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2887,8 +2927,8 @@
       <c r="E64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="21">
-        <v>40946</v>
+      <c r="F64" s="20">
+        <v>41092</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>31</v>
@@ -2901,35 +2941,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="8" customFormat="1" ht="30">
-      <c r="A65" s="3"/>
-      <c r="B65" s="28" t="s">
+    <row r="65" spans="1:10" s="8" customFormat="1" ht="30" hidden="1">
+      <c r="A65" s="39"/>
+      <c r="B65" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="21">
+      <c r="D65" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="42">
         <v>41006</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="4" t="s">
+      <c r="G65" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="42">
+        <v>41017</v>
+      </c>
+      <c r="I65" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="30">
+      <c r="J65" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30" hidden="1">
       <c r="A66" s="23"/>
       <c r="B66" s="28" t="s">
         <v>126</v>
@@ -2938,7 +2980,7 @@
         <v>128</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>11</v>
@@ -2949,7 +2991,9 @@
       <c r="G66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H66" s="37"/>
+      <c r="H66" s="21">
+        <v>41017</v>
+      </c>
       <c r="I66" s="4" t="s">
         <v>8</v>
       </c>
@@ -2986,6 +3030,37 @@
       <c r="J67" s="4" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="68" spans="1:10" ht="45">
+      <c r="A68" s="23"/>
+      <c r="B68" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="37"/>
+      <c r="I68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J67">

--- a/FASE 2/AVANCE+/Pendientes 13.08.12.xlsx
+++ b/FASE 2/AVANCE+/Pendientes 13.08.12.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="138">
   <si>
     <t>Usuario lider</t>
   </si>
@@ -535,6 +535,16 @@
   </si>
   <si>
     <t>8/10/2012 (mes/dia/año)</t>
+  </si>
+  <si>
+    <t>Realizar pruebas Fernando Gastañaudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/17/2012 (mes/dia/año))
+</t>
+  </si>
+  <si>
+    <t>Certificar observaciones corregidas de Reporte Consolidado en Archivo y Grafico curva granulometrica, respecto a las funcionalidades que aun no tenemos feedback pese a que estan listas desde junio son Administrar ID de lotes y ensayos, Reemplazar ensayo premezclados y Gestion de stock.</t>
   </si>
 </sst>
 </file>
@@ -644,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,9 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1076,7 +1083,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2942,32 +2949,32 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="8" customFormat="1" ht="30" hidden="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="40" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="42">
+      <c r="D65" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="41">
         <v>41006</v>
       </c>
-      <c r="G65" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="42">
+      <c r="G65" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="41">
         <v>41017</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="43" t="s">
+      <c r="J65" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3059,8 +3066,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="B69" s="38"/>
+    <row r="69" spans="1:10" s="8" customFormat="1" ht="105">
+      <c r="A69" s="4"/>
+      <c r="B69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="21">
+        <v>41141</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J67">
